--- a/ky/downloads/data-excel/3.5.1.1.xlsx
+++ b/ky/downloads/data-excel/3.5.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="43">
   <si>
     <t>3.5.1.1 Жынысы жана аймактар боюнча 100 000 калкка карата наркотиктен көз каранды болгондордун оорушу</t>
   </si>
@@ -37,24 +37,6 @@
     <t>Kyrgyz Republic</t>
   </si>
   <si>
-    <t>аялдар</t>
-  </si>
-  <si>
-    <t>женщины</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>эркектер</t>
-  </si>
-  <si>
-    <t>мужчины</t>
-  </si>
-  <si>
-    <t>men</t>
-  </si>
-  <si>
     <t>Баткен облусу</t>
   </si>
   <si>
@@ -143,6 +125,24 @@
   </si>
   <si>
     <t>3.5.1.1 Incidence of drug dependence per 100,000 population by gender and territory</t>
+  </si>
+  <si>
+    <t>Аялдар</t>
+  </si>
+  <si>
+    <t>Эркектер</t>
+  </si>
+  <si>
+    <t>Женщины</t>
+  </si>
+  <si>
+    <t>Мужчины</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>Men</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -253,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,26 +562,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -589,7 +590,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -604,8 +605,9 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -648,8 +650,11 @@
       <c r="N3" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -692,16 +697,19 @@
       <c r="N4" s="12">
         <v>1.8780775023805709</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="12">
+        <v>2.3944505088207331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>1.7</v>
@@ -736,16 +744,19 @@
       <c r="N5" s="7">
         <v>0.14178781963228179</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="7">
+        <v>0.52951886522435021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
         <v>25.3</v>
@@ -780,16 +791,19 @@
       <c r="N6" s="7">
         <v>3.6534213711232413</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="7">
+        <v>4.3000500913119915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6">
         <v>1.6</v>
@@ -824,60 +838,66 @@
       <c r="N7" s="12">
         <v>1.0616011776695731</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="12">
+        <v>0.51981356020307379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8">
         <v>0.4</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
         <v>3.1</v>
@@ -912,16 +932,19 @@
       <c r="N9" s="7">
         <v>2.1029609690444144</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="7">
+        <v>1.028739554007112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6">
         <v>5.2</v>
@@ -956,60 +979,66 @@
       <c r="N10" s="12">
         <v>7.6939115769518118E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="12">
+        <v>0.45336944169064486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2">
         <v>0.4</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>0.2</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="7">
+        <v>0.15211161341746121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2">
         <v>10.1</v>
@@ -1044,16 +1073,19 @@
       <c r="N12" s="7">
         <v>0.15299034936876182</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="7">
+        <v>0.75073722395392273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6">
         <v>2.9</v>
@@ -1088,60 +1120,66 @@
       <c r="N13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G14" s="8">
         <v>0.4</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2">
         <v>5.9</v>
@@ -1176,16 +1214,19 @@
       <c r="N15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" s="6">
         <v>1.9</v>
@@ -1200,7 +1241,7 @@
         <v>1.4</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I16" s="6">
         <v>1.1000000000000001</v>
@@ -1220,60 +1261,66 @@
       <c r="N16" s="12">
         <v>0.65058422463372112</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="12">
+        <v>0.32236434908190637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2">
         <v>0.8</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
         <v>0.7</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1288,7 +1335,7 @@
         <v>2.9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2">
         <v>2.1</v>
@@ -1308,16 +1355,19 @@
       <c r="N18" s="7">
         <v>1.2888424905592288</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="7">
+        <v>0.63756806039044667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D19" s="6">
         <v>1.6</v>
@@ -1352,60 +1402,66 @@
       <c r="N19" s="12">
         <v>0.27625263303290859</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="12">
+        <v>0.47449906455898705</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F20" s="8">
         <v>0.2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="9">
+        <v>0.13658701822343999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>3.2</v>
@@ -1440,16 +1496,19 @@
       <c r="N21" s="7">
         <v>0.54880976881388488</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="7">
+        <v>0.80742182138214469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6">
         <v>6.9</v>
@@ -1484,60 +1543,66 @@
       <c r="N22" s="12">
         <v>1.4710371179440784</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="12">
+        <v>1.4528231986808364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2">
         <v>0.9</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" s="2">
         <v>0.8</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L23" s="7">
         <v>0.73493205553146612</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N23" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2">
         <v>13</v>
@@ -1572,16 +1637,19 @@
       <c r="N24" s="7">
         <v>2.9164934998651124</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="7">
+        <v>2.8788783889796536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25" s="6">
         <v>31.8</v>
@@ -1616,16 +1684,19 @@
       <c r="N25" s="12">
         <v>3.0143719603120251</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="12">
+        <v>7.2371521991664292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2">
         <v>2.7</v>
@@ -1655,21 +1726,24 @@
         <v>0.20992174117488999</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N26" s="7">
         <v>0.18722033961769607</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="7">
+        <v>0.1843916182945988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>61.9</v>
@@ -1704,16 +1778,19 @@
       <c r="N27" s="7">
         <v>5.8773232015864982</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="7">
+        <v>14.38048139128356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6">
         <v>37.200000000000003</v>
@@ -1748,16 +1825,19 @@
       <c r="N28" s="12">
         <v>6.4633972501343591</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="12">
+        <v>5.7129502194292243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2">
         <v>6.6</v>
@@ -1781,7 +1861,7 @@
         <v>0.9</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L29" s="7">
         <v>0.20017335012120496</v>
@@ -1792,16 +1872,19 @@
       <c r="N29" s="7">
         <v>0.32372779025029014</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="7">
+        <v>2.3720702955125175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D30" s="2">
         <v>72.5</v>
@@ -1836,16 +1919,19 @@
       <c r="N30" s="7">
         <v>13.877107463538389</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="7">
+        <v>9.7530937387050578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D31" s="6">
         <v>15.5</v>
@@ -1880,16 +1966,19 @@
       <c r="N31" s="12">
         <v>1.4047903350424948</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="12">
+        <v>1.3736037318066185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2">
         <v>1.5</v>
@@ -1898,16 +1987,16 @@
         <v>0.7</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <v>0.7</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J32" s="2">
         <v>2</v>
@@ -1919,21 +2008,24 @@
         <v>0</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N32" s="7">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="7">
+        <v>0.56245500359971201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D33" s="3">
         <v>30.8</v>
@@ -1967,6 +2059,9 @@
       </c>
       <c r="N33" s="10">
         <v>1.6467682173734046</v>
+      </c>
+      <c r="O33" s="10">
+        <v>2.148066203400389</v>
       </c>
     </row>
   </sheetData>
